--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.031721.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.031721.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
